--- a/biology/Botanique/Pachypodium_namaquanum/Pachypodium_namaquanum.xlsx
+++ b/biology/Botanique/Pachypodium_namaquanum/Pachypodium_namaquanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachypodium namaquanum est une espèce de plantes à fleurs du genre Pachypodium et de la famille des Apocynaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachypodium namaquanum est une plante vivace, qui croît sous la forme d’un tronc conique rarement ramifié. Le tronc atteint une hauteur de 1,5 à 2 m, d’une base allant jusqu’à 30 cm de large et se réduisant à 9 cm environ à la cime. L’écorce gris-argent, en forme de spirale, est couverte de bosselures, desquelles sortent 3 fortes épines marron clair longues de 7 cm. Les feuilles forment une rosette à la cime du tronc.  Elles sont vert pâle, souples, plissées, veloutées, elliptiques ou lancéolées inverses, d’une longueur allant jusqu’à 12 cm et une largeur de 2 à 4 cm.
 Les fleurs, répandues au sommet de la plante, sont en forme de gobelet de 2,5 à 5 mm de long et de 8 à 10 mm de large. Leur intérieur est pourpre mat, l’extérieur vert-jaune.
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est répandue dans le sud de la Namibie, ainsi que dans la région du Cap-du-Nord en Afrique du Sud (Namaqualand).
 Elle y pousse sur les pentes rocheuses et sèches entre 300 et 900 mètres d’altitude.
@@ -576,9 +592,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pachypodium namaquanum est listé « en danger » dans la Convention de commerce international des espèces végétales et animales (Convention on the International Trade in Endangered Species of Flora and Fauna)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachypodium namaquanum est listé « en danger » dans la Convention de commerce international des espèces végétales et animales (Convention on the International Trade in Endangered Species of Flora and Fauna).
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hybride à fort développement, nommé 'Arid Lands', croisé avec Pachypodium succulentum a été cultivé.
 </t>
